--- a/tabular/refseq-lineage/ifnl-curated-side-data.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10314"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749130EF-7D67-0D48-85D3-ABE71F3BCAC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E118370-9BB5-9947-BFDE-69D2EEFC848E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="6060" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -858,12 +858,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>IFNLB1_Psi_Hsa</t>
-  </si>
-  <si>
-    <t>IFNLA_Psi_Hsa</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
@@ -1660,6 +1654,12 @@
   </si>
   <si>
     <t>duplicate_id</t>
+  </si>
+  <si>
+    <t>IFNL_Mammal_APsi-Hsa</t>
+  </si>
+  <si>
+    <t>IFNL_Mammal_BPsi-Hsa</t>
   </si>
 </sst>
 </file>
@@ -3326,13 +3326,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="A1:R190"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="C140" sqref="A1:R190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
     <col min="3" max="4" width="34.6640625" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
@@ -3355,55 +3355,55 @@
         <v>273</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="R1" s="26" t="s">
         <v>334</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -3411,23 +3411,23 @@
         <v>255</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
@@ -3454,26 +3454,26 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -3496,26 +3496,26 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -3541,23 +3541,23 @@
         <v>261</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -3580,10 +3580,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>176</v>
@@ -3593,13 +3593,13 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
@@ -3622,10 +3622,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>176</v>
@@ -3635,13 +3635,13 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -3667,23 +3667,23 @@
         <v>260</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -3711,23 +3711,23 @@
         <v>250</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -3755,7 +3755,7 @@
         <v>252</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>178</v>
@@ -3765,13 +3765,13 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -3799,7 +3799,7 @@
         <v>265</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>178</v>
@@ -3809,13 +3809,13 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -3838,10 +3838,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>171</v>
@@ -3851,13 +3851,13 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -3880,28 +3880,28 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -3927,7 +3927,7 @@
         <v>266</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>183</v>
@@ -3937,13 +3937,13 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -3966,28 +3966,28 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -4003,35 +4003,35 @@
         <v>97</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -4044,38 +4044,38 @@
         <v>89</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Q16" s="27"/>
       <c r="R16" s="27"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -4091,33 +4091,33 @@
         <v>135</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -4130,38 +4130,38 @@
         <v>89</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -4174,38 +4174,38 @@
         <v>128</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -4221,7 +4221,7 @@
         <v>75</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="Q20" s="27"/>
       <c r="R20" s="27"/>
@@ -4231,23 +4231,23 @@
         <v>259</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -4272,28 +4272,28 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -4319,7 +4319,7 @@
         <v>262</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>172</v>
@@ -4329,13 +4329,13 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -4358,10 +4358,10 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>172</v>
@@ -4370,16 +4370,16 @@
         <v>172</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -4405,23 +4405,23 @@
         <v>251</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -4449,23 +4449,23 @@
         <v>264</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -4491,23 +4491,23 @@
         <v>251</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -4530,10 +4530,10 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>179</v>
@@ -4543,13 +4543,13 @@
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -4572,10 +4572,10 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>179</v>
@@ -4584,16 +4584,16 @@
         <v>179</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -4619,7 +4619,7 @@
         <v>175</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>182</v>
@@ -4629,13 +4629,13 @@
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
@@ -4661,23 +4661,23 @@
         <v>268</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
@@ -4704,26 +4704,26 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
@@ -4746,28 +4746,28 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
@@ -4793,23 +4793,23 @@
         <v>269</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
@@ -4834,26 +4834,26 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
@@ -4876,28 +4876,28 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
@@ -4913,35 +4913,35 @@
         <v>75</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Q36" s="27"/>
       <c r="R36" s="27"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
@@ -4967,23 +4967,23 @@
         <v>258</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
@@ -5008,10 +5008,10 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>180</v>
@@ -5021,13 +5021,13 @@
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
@@ -5050,10 +5050,10 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>180</v>
@@ -5062,16 +5062,16 @@
         <v>180</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
@@ -5094,10 +5094,10 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>202</v>
@@ -5107,13 +5107,13 @@
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
@@ -5136,26 +5136,26 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
@@ -5168,10 +5168,10 @@
         <v>138</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Q42" s="27"/>
       <c r="R42" s="27"/>
@@ -5181,7 +5181,7 @@
         <v>253</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>181</v>
@@ -5191,13 +5191,13 @@
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
@@ -5225,7 +5225,7 @@
         <v>267</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>181</v>
@@ -5235,13 +5235,13 @@
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
@@ -5264,26 +5264,26 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
@@ -5306,10 +5306,10 @@
     </row>
     <row r="46" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>170</v>
@@ -5319,13 +5319,13 @@
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
@@ -5351,23 +5351,23 @@
         <v>256</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
@@ -5395,23 +5395,23 @@
         <v>271</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
@@ -5438,28 +5438,28 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
@@ -5485,23 +5485,23 @@
         <v>249</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
@@ -5529,7 +5529,7 @@
         <v>263</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>173</v>
@@ -5539,13 +5539,13 @@
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
@@ -5568,10 +5568,10 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>173</v>
@@ -5581,13 +5581,13 @@
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
@@ -5610,28 +5610,28 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
@@ -5654,26 +5654,26 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
@@ -5696,26 +5696,26 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
@@ -5738,28 +5738,28 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
@@ -5782,28 +5782,28 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
@@ -5819,35 +5819,35 @@
         <v>97</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="Q57" s="27"/>
       <c r="R57" s="27"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="22" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
@@ -5863,7 +5863,7 @@
         <v>91</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q58" s="27"/>
       <c r="R58" s="27"/>
@@ -5873,23 +5873,23 @@
         <v>257</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
@@ -5917,7 +5917,7 @@
         <v>272</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>177</v>
@@ -5927,13 +5927,13 @@
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
@@ -5959,23 +5959,23 @@
         <v>270</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
@@ -6003,7 +6003,7 @@
         <v>254</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>174</v>
@@ -6013,13 +6013,13 @@
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
@@ -6045,23 +6045,23 @@
         <v>254</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
@@ -6086,28 +6086,28 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
@@ -6123,7 +6123,7 @@
         <v>127</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Q64" s="27"/>
       <c r="R64" s="27"/>
@@ -6133,23 +6133,23 @@
         <v>158</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
@@ -6176,31 +6176,31 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
-        <v>275</v>
+        <v>540</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
       <c r="K66" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L66" s="14">
         <v>1</v>
@@ -6218,29 +6218,29 @@
         <v>71</v>
       </c>
       <c r="Q66" s="27" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="R66" s="27"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="24" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H67" s="25">
         <v>1</v>
@@ -6250,39 +6250,39 @@
       <c r="K67" s="24"/>
       <c r="L67" s="24"/>
       <c r="M67" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="N67" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="O67" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="P67" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="N67" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="O67" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="P67" s="24" t="s">
-        <v>515</v>
       </c>
       <c r="Q67" s="29"/>
       <c r="R67" s="29"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H68" s="10">
         <v>1</v>
@@ -6292,39 +6292,39 @@
       <c r="K68" s="7"/>
       <c r="L68" s="10"/>
       <c r="M68" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="N68" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="O68" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="N68" s="7" t="s">
+      <c r="P68" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="O68" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="P68" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="Q68" s="30"/>
       <c r="R68" s="30"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H69" s="10">
         <v>1</v>
@@ -6334,16 +6334,16 @@
       <c r="K69" s="7"/>
       <c r="L69" s="10"/>
       <c r="M69" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N69" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="P69" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="O69" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="P69" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="Q69" s="30"/>
       <c r="R69" s="30"/>
@@ -6353,30 +6353,30 @@
         <v>240</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I70" s="11">
         <v>1</v>
       </c>
       <c r="J70" s="11"/>
       <c r="K70" s="34" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L70" s="11"/>
       <c r="M70" s="4" t="s">
@@ -6403,30 +6403,30 @@
         <v>210</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I71" s="11">
         <v>1</v>
       </c>
       <c r="J71" s="11"/>
       <c r="K71" s="34" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L71" s="11"/>
       <c r="M71" s="4" t="s">
@@ -6451,30 +6451,30 @@
         <v>245</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I72" s="11">
         <v>1</v>
       </c>
       <c r="J72" s="11"/>
       <c r="K72" s="34" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L72" s="11"/>
       <c r="M72" s="4" t="s">
@@ -6496,33 +6496,33 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I73" s="11">
         <v>1</v>
       </c>
       <c r="J73" s="11"/>
       <c r="K73" s="34" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L73" s="4"/>
       <c r="M73" s="4" t="s">
@@ -6532,45 +6532,45 @@
         <v>128</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="32" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I74" s="11">
         <v>1</v>
       </c>
       <c r="J74" s="11"/>
       <c r="K74" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L74" s="12">
         <v>1</v>
@@ -6582,10 +6582,10 @@
         <v>128</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
@@ -6595,30 +6595,30 @@
         <v>209</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I75" s="11">
         <v>1</v>
       </c>
       <c r="J75" s="11"/>
       <c r="K75" s="34" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L75" s="11"/>
       <c r="M75" s="4" t="s">
@@ -6643,7 +6643,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>171</v>
@@ -6653,20 +6653,20 @@
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I76" s="11">
         <v>1</v>
       </c>
       <c r="J76" s="11"/>
       <c r="K76" s="34" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L76" s="11"/>
       <c r="M76" s="4" t="s">
@@ -6688,33 +6688,33 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I77" s="11">
         <v>1</v>
       </c>
       <c r="J77" s="11"/>
       <c r="K77" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L77" s="12">
         <v>1</v>
@@ -6736,33 +6736,33 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I78" s="11">
         <v>1</v>
       </c>
       <c r="J78" s="11"/>
       <c r="K78" s="34" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L78" s="4"/>
       <c r="M78" s="4" t="s">
@@ -6772,45 +6772,45 @@
         <v>89</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I79" s="11">
         <v>1</v>
       </c>
       <c r="J79" s="11"/>
       <c r="K79" s="34" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L79" s="4"/>
       <c r="M79" s="4" t="s">
@@ -6823,7 +6823,7 @@
         <v>97</v>
       </c>
       <c r="P79" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
@@ -6833,30 +6833,30 @@
         <v>234</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I80" s="11">
         <v>1</v>
       </c>
       <c r="J80" s="11"/>
       <c r="K80" s="34" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L80" s="11"/>
       <c r="M80" s="4" t="s">
@@ -6883,30 +6883,30 @@
         <v>218</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I81" s="11">
         <v>1</v>
       </c>
       <c r="J81" s="11"/>
       <c r="K81" s="34" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L81" s="11"/>
       <c r="M81" s="4" t="s">
@@ -6930,33 +6930,33 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I82" s="11">
         <v>1</v>
       </c>
       <c r="J82" s="11"/>
       <c r="K82" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L82" s="4"/>
       <c r="M82" s="4" t="s">
@@ -6969,40 +6969,40 @@
         <v>135</v>
       </c>
       <c r="P82" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I83" s="11">
         <v>1</v>
       </c>
       <c r="J83" s="11"/>
       <c r="K83" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L83" s="4"/>
       <c r="M83" s="4" t="s">
@@ -7012,43 +7012,43 @@
         <v>89</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="P83" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I84" s="11">
         <v>1</v>
       </c>
       <c r="J84" s="11"/>
       <c r="K84" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L84" s="4"/>
       <c r="M84" s="4" t="s">
@@ -7058,43 +7058,43 @@
         <v>89</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="P84" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I85" s="11">
         <v>1</v>
       </c>
       <c r="J85" s="11"/>
       <c r="K85" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L85" s="12">
         <v>1</v>
@@ -7119,30 +7119,30 @@
         <v>242</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I86" s="11">
         <v>1</v>
       </c>
       <c r="J86" s="11"/>
       <c r="K86" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L86" s="12">
         <v>1</v>
@@ -7169,30 +7169,30 @@
         <v>213</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I87" s="11">
         <v>1</v>
       </c>
       <c r="J87" s="11"/>
       <c r="K87" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L87" s="11"/>
       <c r="M87" s="4" t="s">
@@ -7217,30 +7217,30 @@
         <v>4</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I88" s="11">
         <v>1</v>
       </c>
       <c r="J88" s="11"/>
       <c r="K88" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L88" s="11"/>
       <c r="M88" s="4" t="s">
@@ -7262,35 +7262,35 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="18" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I89" s="11">
         <v>1</v>
       </c>
       <c r="J89" s="11"/>
       <c r="K89" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L89" s="4"/>
       <c r="M89" s="4" t="s">
@@ -7313,30 +7313,30 @@
         <v>5</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I90" s="11">
         <v>1</v>
       </c>
       <c r="J90" s="11"/>
       <c r="K90" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L90" s="4"/>
       <c r="M90" s="4" t="s">
@@ -7361,32 +7361,32 @@
         <v>208</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I91" s="11">
         <v>1</v>
       </c>
       <c r="J91" s="11"/>
       <c r="K91" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L91" s="11"/>
       <c r="M91" s="4" t="s">
@@ -7413,30 +7413,30 @@
         <v>238</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I92" s="11">
         <v>1</v>
       </c>
       <c r="J92" s="11"/>
       <c r="K92" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L92" s="11"/>
       <c r="M92" s="4" t="s">
@@ -7461,30 +7461,30 @@
         <v>216</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I93" s="11">
         <v>1</v>
       </c>
       <c r="J93" s="11"/>
       <c r="K93" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L93" s="11"/>
       <c r="M93" s="4" t="s">
@@ -7506,35 +7506,35 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="18" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I94" s="11">
         <v>1</v>
       </c>
       <c r="J94" s="11"/>
       <c r="K94" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L94" s="4"/>
       <c r="M94" s="4" t="s">
@@ -7547,42 +7547,42 @@
         <v>75</v>
       </c>
       <c r="P94" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I95" s="11">
         <v>1</v>
       </c>
       <c r="J95" s="11"/>
       <c r="K95" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L95" s="4"/>
       <c r="M95" s="4" t="s">
@@ -7592,43 +7592,43 @@
         <v>79</v>
       </c>
       <c r="O95" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="P95" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="18" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I96" s="11">
         <v>1</v>
       </c>
       <c r="J96" s="11"/>
       <c r="K96" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L96" s="4"/>
       <c r="M96" s="4" t="s">
@@ -7651,32 +7651,32 @@
         <v>236</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I97" s="11">
         <v>1</v>
       </c>
       <c r="J97" s="11"/>
       <c r="K97" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L97" s="11"/>
       <c r="M97" s="4" t="s">
@@ -7698,33 +7698,33 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I98" s="11">
         <v>1</v>
       </c>
       <c r="J98" s="11"/>
       <c r="K98" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L98" s="11"/>
       <c r="M98" s="4" t="s">
@@ -7734,10 +7734,10 @@
         <v>138</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P98" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
@@ -7747,30 +7747,30 @@
         <v>205</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I99" s="11">
         <v>1</v>
       </c>
       <c r="J99" s="11"/>
       <c r="K99" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L99" s="11"/>
       <c r="M99" s="4" t="s">
@@ -7797,30 +7797,30 @@
         <v>237</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I100" s="11">
         <v>1</v>
       </c>
       <c r="J100" s="11"/>
       <c r="K100" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L100" s="11"/>
       <c r="M100" s="4" t="s">
@@ -7845,30 +7845,30 @@
         <v>207</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I101" s="11">
         <v>1</v>
       </c>
       <c r="J101" s="11"/>
       <c r="K101" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L101" s="11"/>
       <c r="M101" s="4" t="s">
@@ -7890,35 +7890,35 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I102" s="11">
         <v>1</v>
       </c>
       <c r="J102" s="11"/>
       <c r="K102" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L102" s="4"/>
       <c r="M102" s="4" t="s">
@@ -7941,30 +7941,30 @@
         <v>235</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I103" s="11">
         <v>1</v>
       </c>
       <c r="J103" s="11"/>
       <c r="K103" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L103" s="11"/>
       <c r="M103" s="4" t="s">
@@ -7989,30 +7989,30 @@
         <v>211</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I104" s="11">
         <v>1</v>
       </c>
       <c r="J104" s="11"/>
       <c r="K104" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L104" s="11"/>
       <c r="M104" s="4" t="s">
@@ -8034,35 +8034,35 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="18" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I105" s="11">
         <v>1</v>
       </c>
       <c r="J105" s="11"/>
       <c r="K105" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L105" s="4"/>
       <c r="M105" s="4" t="s">
@@ -8085,30 +8085,30 @@
         <v>3</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I106" s="11">
         <v>1</v>
       </c>
       <c r="J106" s="11"/>
       <c r="K106" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L106" s="11"/>
       <c r="M106" s="4" t="s">
@@ -8130,35 +8130,35 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="18" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E107" s="4">
         <v>21278349</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I107" s="11">
         <v>1</v>
       </c>
       <c r="J107" s="11"/>
       <c r="K107" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L107" s="4"/>
       <c r="M107" s="4" t="s">
@@ -8171,7 +8171,7 @@
         <v>91</v>
       </c>
       <c r="P107" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
@@ -8181,30 +8181,30 @@
         <v>212</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I108" s="11">
         <v>1</v>
       </c>
       <c r="J108" s="11"/>
       <c r="K108" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L108" s="11"/>
       <c r="M108" s="4" t="s">
@@ -8226,33 +8226,33 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I109" s="11">
         <v>1</v>
       </c>
       <c r="J109" s="11"/>
       <c r="K109" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L109" s="4"/>
       <c r="M109" s="4" t="s">
@@ -8275,30 +8275,30 @@
         <v>204</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I110" s="11">
         <v>1</v>
       </c>
       <c r="J110" s="11"/>
       <c r="K110" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L110" s="11"/>
       <c r="M110" s="4" t="s">
@@ -8323,30 +8323,30 @@
         <v>239</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I111" s="11">
         <v>1</v>
       </c>
       <c r="J111" s="11"/>
       <c r="K111" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L111" s="11"/>
       <c r="M111" s="4" t="s">
@@ -8368,33 +8368,33 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="18" t="s">
-        <v>274</v>
+        <v>541</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I112" s="11">
         <v>1</v>
       </c>
       <c r="J112" s="11"/>
       <c r="K112" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L112" s="11"/>
       <c r="M112" s="4" t="s">
@@ -8410,7 +8410,7 @@
         <v>71</v>
       </c>
       <c r="Q112" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="R112" s="4"/>
     </row>
@@ -8419,30 +8419,30 @@
         <v>241</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I113" s="12">
         <v>1</v>
       </c>
       <c r="J113" s="12"/>
       <c r="K113" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L113" s="12">
         <v>1</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>7</v>
@@ -8481,20 +8481,20 @@
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I114" s="12">
         <v>1</v>
       </c>
       <c r="J114" s="12"/>
       <c r="K114" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L114" s="12">
         <v>1</v>
@@ -8512,7 +8512,7 @@
         <v>7</v>
       </c>
       <c r="Q114" s="31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="R114" s="31"/>
     </row>
@@ -8521,30 +8521,30 @@
         <v>214</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I115" s="12">
         <v>1</v>
       </c>
       <c r="J115" s="12"/>
       <c r="K115" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L115" s="12">
         <v>1</v>
@@ -8571,30 +8571,30 @@
         <v>215</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I116" s="12">
         <v>1</v>
       </c>
       <c r="J116" s="12"/>
       <c r="K116" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L116" s="12">
         <v>1</v>
@@ -8621,30 +8621,30 @@
         <v>217</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I117" s="12">
         <v>1</v>
       </c>
       <c r="J117" s="12"/>
       <c r="K117" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L117" s="12">
         <v>1</v>
@@ -8671,30 +8671,30 @@
         <v>244</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I118" s="12">
         <v>1</v>
       </c>
       <c r="J118" s="12"/>
       <c r="K118" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L118" s="12">
         <v>1</v>
@@ -8721,30 +8721,30 @@
         <v>68</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I119" s="12">
         <v>1</v>
       </c>
       <c r="J119" s="12"/>
       <c r="K119" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L119" s="12">
         <v>1</v>
@@ -8771,30 +8771,30 @@
         <v>206</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I120" s="12">
         <v>1</v>
       </c>
       <c r="J120" s="12"/>
       <c r="K120" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L120" s="12">
         <v>2</v>
@@ -8823,23 +8823,23 @@
         <v>247</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E121" s="8"/>
       <c r="F121" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I121" s="13">
         <v>2</v>
@@ -8873,23 +8873,23 @@
         <v>227</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I122" s="13">
         <v>2</v>
@@ -8918,26 +8918,26 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E123" s="8"/>
       <c r="F123" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I123" s="13">
         <v>2</v>
@@ -8967,23 +8967,23 @@
         <v>231</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H124" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I124" s="13">
         <v>2</v>
@@ -9015,23 +9015,23 @@
         <v>219</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I125" s="13">
         <v>2</v>
@@ -9060,28 +9060,28 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I126" s="13">
         <v>2</v>
@@ -9111,23 +9111,23 @@
         <v>232</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I127" s="13">
         <v>2</v>
@@ -9156,28 +9156,28 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I128" s="13">
         <v>2</v>
@@ -9197,33 +9197,33 @@
         <v>122</v>
       </c>
       <c r="P128" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Q128" s="8"/>
       <c r="R128" s="8"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I129" s="13">
         <v>2</v>
@@ -9243,7 +9243,7 @@
         <v>122</v>
       </c>
       <c r="P129" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Q129" s="8"/>
       <c r="R129" s="8"/>
@@ -9253,23 +9253,23 @@
         <v>221</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E130" s="8"/>
       <c r="F130" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H130" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I130" s="13">
         <v>2</v>
@@ -9301,7 +9301,7 @@
         <v>222</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>178</v>
@@ -9311,13 +9311,13 @@
       </c>
       <c r="E131" s="8"/>
       <c r="F131" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H131" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I131" s="13">
         <v>2</v>
@@ -9349,7 +9349,7 @@
         <v>2</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>171</v>
@@ -9359,13 +9359,13 @@
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I132" s="13">
         <v>2</v>
@@ -9394,28 +9394,28 @@
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H133" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I133" s="13">
         <v>2</v>
@@ -9442,28 +9442,28 @@
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H134" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I134" s="13">
         <v>2</v>
@@ -9483,35 +9483,35 @@
         <v>135</v>
       </c>
       <c r="P134" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q134" s="8"/>
       <c r="R134" s="8"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H135" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I135" s="13">
         <v>2</v>
@@ -9531,33 +9531,33 @@
         <v>135</v>
       </c>
       <c r="P135" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q135" s="8"/>
       <c r="R135" s="8"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E136" s="8"/>
       <c r="F136" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H136" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I136" s="13">
         <v>2</v>
@@ -9574,38 +9574,38 @@
         <v>89</v>
       </c>
       <c r="O136" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="P136" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q136" s="8"/>
       <c r="R136" s="8"/>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H137" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I137" s="13">
         <v>2</v>
@@ -9619,41 +9619,41 @@
         <v>101</v>
       </c>
       <c r="N137" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="O137" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="P137" s="8" t="s">
         <v>529</v>
-      </c>
-      <c r="O137" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="P137" s="8" t="s">
-        <v>531</v>
       </c>
       <c r="Q137" s="8"/>
       <c r="R137" s="8"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I138" s="13">
         <v>2</v>
@@ -9673,7 +9673,7 @@
         <v>75</v>
       </c>
       <c r="P138" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="Q138" s="8"/>
       <c r="R138" s="8"/>
@@ -9683,23 +9683,23 @@
         <v>243</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E139" s="8"/>
       <c r="F139" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H139" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I139" s="13">
         <v>2</v>
@@ -9728,26 +9728,26 @@
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E140" s="8"/>
       <c r="F140" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H140" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I140" s="13">
         <v>2</v>
@@ -9777,23 +9777,23 @@
         <v>230</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E141" s="8"/>
       <c r="F141" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H141" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I141" s="13">
         <v>2</v>
@@ -9822,26 +9822,26 @@
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E142" s="8"/>
       <c r="F142" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H142" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I142" s="13">
         <v>2</v>
@@ -9871,23 +9871,23 @@
         <v>5</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E143" s="8"/>
       <c r="F143" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H143" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I143" s="13">
         <v>2</v>
@@ -9916,10 +9916,10 @@
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>179</v>
@@ -9928,16 +9928,16 @@
         <v>179</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H144" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I144" s="13">
         <v>2</v>
@@ -9964,10 +9964,10 @@
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>179</v>
@@ -9976,16 +9976,16 @@
         <v>179</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H145" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I145" s="13">
         <v>2</v>
@@ -10012,28 +10012,28 @@
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" s="20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H146" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I146" s="13">
         <v>2</v>
@@ -10065,23 +10065,23 @@
         <v>246</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E147" s="8"/>
       <c r="F147" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H147" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I147" s="13">
         <v>2</v>
@@ -10115,23 +10115,23 @@
         <v>248</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E148" s="8"/>
       <c r="F148" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H148" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I148" s="13">
         <v>2</v>
@@ -10160,26 +10160,26 @@
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" s="20" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E149" s="8"/>
       <c r="F149" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H149" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I149" s="13">
         <v>2</v>
@@ -10199,33 +10199,33 @@
         <v>75</v>
       </c>
       <c r="P149" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Q149" s="8"/>
       <c r="R149" s="8"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" s="20" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E150" s="8"/>
       <c r="F150" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H150" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I150" s="13">
         <v>2</v>
@@ -10245,33 +10245,33 @@
         <v>75</v>
       </c>
       <c r="P150" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Q150" s="8"/>
       <c r="R150" s="8"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" s="20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E151" s="8"/>
       <c r="F151" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H151" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I151" s="13">
         <v>2</v>
@@ -10291,35 +10291,35 @@
         <v>75</v>
       </c>
       <c r="P151" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Q151" s="8"/>
       <c r="R151" s="8"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" s="20" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H152" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I152" s="13">
         <v>2</v>
@@ -10333,39 +10333,39 @@
         <v>89</v>
       </c>
       <c r="N152" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="O152" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="P152" s="8" t="s">
         <v>532</v>
-      </c>
-      <c r="O152" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="P152" s="8" t="s">
-        <v>534</v>
       </c>
       <c r="Q152" s="8"/>
       <c r="R152" s="8"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" s="20" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E153" s="8"/>
       <c r="F153" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H153" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I153" s="13">
         <v>2</v>
@@ -10382,36 +10382,36 @@
         <v>79</v>
       </c>
       <c r="O153" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="P153" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q153" s="8"/>
       <c r="R153" s="8"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" s="20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E154" s="8"/>
       <c r="F154" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H154" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I154" s="13">
         <v>2</v>
@@ -10428,36 +10428,36 @@
         <v>79</v>
       </c>
       <c r="O154" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="P154" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q154" s="8"/>
       <c r="R154" s="8"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E155" s="8"/>
       <c r="F155" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H155" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I155" s="13">
         <v>2</v>
@@ -10474,38 +10474,38 @@
         <v>79</v>
       </c>
       <c r="O155" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="P155" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q155" s="8"/>
       <c r="R155" s="8"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" s="20" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H156" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I156" s="13">
         <v>2</v>
@@ -10522,38 +10522,38 @@
         <v>79</v>
       </c>
       <c r="O156" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="P156" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q156" s="8"/>
       <c r="R156" s="8"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" s="20" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H157" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I157" s="13">
         <v>2</v>
@@ -10570,36 +10570,36 @@
         <v>79</v>
       </c>
       <c r="O157" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="P157" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q157" s="8"/>
       <c r="R157" s="8"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" s="20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E158" s="8"/>
       <c r="F158" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H158" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I158" s="13">
         <v>2</v>
@@ -10626,28 +10626,28 @@
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H159" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I159" s="13">
         <v>2</v>
@@ -10674,26 +10674,26 @@
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" s="20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E160" s="8"/>
       <c r="F160" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H160" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I160" s="13">
         <v>2</v>
@@ -10720,28 +10720,28 @@
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" s="20" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H161" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I161" s="13">
         <v>2</v>
@@ -10771,23 +10771,23 @@
         <v>229</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E162" s="8"/>
       <c r="F162" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H162" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I162" s="13">
         <v>2</v>
@@ -10816,28 +10816,28 @@
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" s="20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H163" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I163" s="13">
         <v>2</v>
@@ -10864,28 +10864,28 @@
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H164" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I164" s="13">
         <v>2</v>
@@ -10912,28 +10912,28 @@
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H165" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I165" s="13">
         <v>2</v>
@@ -10960,28 +10960,28 @@
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H166" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I166" s="13">
         <v>2</v>
@@ -11011,23 +11011,23 @@
         <v>225</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E167" s="8"/>
       <c r="F167" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H167" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I167" s="13">
         <v>2</v>
@@ -11059,7 +11059,7 @@
         <v>224</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>181</v>
@@ -11069,13 +11069,13 @@
       </c>
       <c r="E168" s="8"/>
       <c r="F168" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H168" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I168" s="13">
         <v>2</v>
@@ -11104,10 +11104,10 @@
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>181</v>
@@ -11117,13 +11117,13 @@
       </c>
       <c r="E169" s="8"/>
       <c r="F169" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H169" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I169" s="13">
         <v>2</v>
@@ -11150,10 +11150,10 @@
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>181</v>
@@ -11163,13 +11163,13 @@
       </c>
       <c r="E170" s="8"/>
       <c r="F170" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H170" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I170" s="13">
         <v>2</v>
@@ -11196,26 +11196,26 @@
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" s="20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E171" s="8"/>
       <c r="F171" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H171" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I171" s="13">
         <v>2</v>
@@ -11245,23 +11245,23 @@
         <v>220</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E172" s="8"/>
       <c r="F172" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H172" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I172" s="13">
         <v>2</v>
@@ -11290,28 +11290,28 @@
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" s="20" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H173" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I173" s="13">
         <v>2</v>
@@ -11338,28 +11338,28 @@
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H174" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I174" s="13">
         <v>2</v>
@@ -11389,23 +11389,23 @@
         <v>223</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E175" s="8"/>
       <c r="F175" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H175" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I175" s="13">
         <v>2</v>
@@ -11434,28 +11434,28 @@
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" s="20" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H176" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I176" s="13">
         <v>2</v>
@@ -11482,28 +11482,28 @@
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" s="20" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H177" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I177" s="13">
         <v>2</v>
@@ -11530,28 +11530,28 @@
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H178" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I178" s="13">
         <v>2</v>
@@ -11578,28 +11578,28 @@
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" s="20" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H179" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I179" s="13">
         <v>2</v>
@@ -11626,26 +11626,26 @@
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" s="20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E180" s="8"/>
       <c r="F180" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H180" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I180" s="13">
         <v>2</v>
@@ -11665,33 +11665,33 @@
         <v>91</v>
       </c>
       <c r="P180" s="8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q180" s="8"/>
       <c r="R180" s="8"/>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181" s="20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E181" s="8"/>
       <c r="F181" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H181" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I181" s="13">
         <v>2</v>
@@ -11711,35 +11711,35 @@
         <v>91</v>
       </c>
       <c r="P181" s="8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q181" s="8"/>
       <c r="R181" s="8"/>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H182" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I182" s="13">
         <v>2</v>
@@ -11759,35 +11759,35 @@
         <v>91</v>
       </c>
       <c r="P182" s="8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q182" s="8"/>
       <c r="R182" s="8"/>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183" s="20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H183" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I183" s="13">
         <v>2</v>
@@ -11807,7 +11807,7 @@
         <v>91</v>
       </c>
       <c r="P183" s="8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q183" s="8"/>
       <c r="R183" s="8"/>
@@ -11817,23 +11817,23 @@
         <v>228</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E184" s="8"/>
       <c r="F184" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H184" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I184" s="13">
         <v>2</v>
@@ -11862,28 +11862,28 @@
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H185" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I185" s="13">
         <v>2</v>
@@ -11910,28 +11910,28 @@
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" s="20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H186" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I186" s="13">
         <v>2</v>
@@ -11958,10 +11958,10 @@
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" s="20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>177</v>
@@ -11971,13 +11971,13 @@
       </c>
       <c r="E187" s="8"/>
       <c r="F187" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H187" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I187" s="13">
         <v>2</v>
@@ -12004,10 +12004,10 @@
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" s="20" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>177</v>
@@ -12017,13 +12017,13 @@
       </c>
       <c r="E188" s="8"/>
       <c r="F188" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H188" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I188" s="13">
         <v>2</v>
@@ -12053,23 +12053,23 @@
         <v>233</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E189" s="8"/>
       <c r="F189" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H189" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I189" s="13">
         <v>2</v>
@@ -12101,23 +12101,23 @@
         <v>226</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E190" s="8"/>
       <c r="F190" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G190" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H190" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I190" s="13">
         <v>2</v>
@@ -12175,82 +12175,82 @@
         <v>273</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="R1" s="26" t="s">
         <v>334</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="4"/>
@@ -12262,13 +12262,13 @@
         <v>151</v>
       </c>
       <c r="O2" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>391</v>
       </c>
       <c r="R2" s="4"/>
     </row>
@@ -12277,28 +12277,28 @@
         <v>203</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>312</v>
-      </c>
       <c r="I3" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="4"/>
@@ -12327,26 +12327,26 @@
         <v>166</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="4"/>
@@ -12372,28 +12372,28 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I5" s="13">
         <v>2</v>
@@ -12407,13 +12407,13 @@
         <v>89</v>
       </c>
       <c r="N5" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="P5" s="8" t="s">
         <v>535</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>537</v>
       </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>

--- a/tabular/refseq-lineage/ifnl-curated-side-data.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E118370-9BB5-9947-BFDE-69D2EEFC848E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A28BEB-B9A5-284E-9D58-AC1DC4AB32A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="6060" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3326,8 +3326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="C140" sqref="A1:R190"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/refseq-lineage/ifnl-curated-side-data.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A28BEB-B9A5-284E-9D58-AC1DC4AB32A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E97F3B6-2A3A-3F4B-A799-C4405C7D18DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7820" yWindow="6060" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="585">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -1660,6 +1660,135 @@
   </si>
   <si>
     <t>IFNL_Mammal_BPsi-Hsa</t>
+  </si>
+  <si>
+    <t>XM_010330964</t>
+  </si>
+  <si>
+    <t>XM_017503064</t>
+  </si>
+  <si>
+    <t>XM_012438872</t>
+  </si>
+  <si>
+    <t>XM_011973415</t>
+  </si>
+  <si>
+    <t>XM_003270381</t>
+  </si>
+  <si>
+    <t>XM_019014911</t>
+  </si>
+  <si>
+    <t>XM_002829197</t>
+  </si>
+  <si>
+    <t>XM_024237432</t>
+  </si>
+  <si>
+    <t>XM_008964649</t>
+  </si>
+  <si>
+    <t>XM_011952423</t>
+  </si>
+  <si>
+    <t>XM_010380920</t>
+  </si>
+  <si>
+    <t>XM_017887367</t>
+  </si>
+  <si>
+    <t>XM_005589169</t>
+  </si>
+  <si>
+    <t>XM_005589166</t>
+  </si>
+  <si>
+    <t>XM_011764820</t>
+  </si>
+  <si>
+    <t>XM_012077999</t>
+  </si>
+  <si>
+    <t>XM_012078033</t>
+  </si>
+  <si>
+    <t>XM_025368308</t>
+  </si>
+  <si>
+    <t>XM_025367960</t>
+  </si>
+  <si>
+    <t>XM_012438845</t>
+  </si>
+  <si>
+    <t>XM_003943132</t>
+  </si>
+  <si>
+    <t>XM_003270380</t>
+  </si>
+  <si>
+    <t>XM_002829198</t>
+  </si>
+  <si>
+    <t>XM_004060705</t>
+  </si>
+  <si>
+    <t>XM_007996760</t>
+  </si>
+  <si>
+    <t>XM_012077988</t>
+  </si>
+  <si>
+    <t>XM_003915503</t>
+  </si>
+  <si>
+    <t>XM_011973361</t>
+  </si>
+  <si>
+    <t>XM_005589170</t>
+  </si>
+  <si>
+    <t>XM_011764819</t>
+  </si>
+  <si>
+    <t>XM_025368404</t>
+  </si>
+  <si>
+    <t>XM_010380919</t>
+  </si>
+  <si>
+    <t>XM_023229397</t>
+  </si>
+  <si>
+    <t>XM_012657015</t>
+  </si>
+  <si>
+    <t>XM_012775213</t>
+  </si>
+  <si>
+    <t>Microcebus murinus</t>
+  </si>
+  <si>
+    <t>Cebus imitator</t>
+  </si>
+  <si>
+    <t>Saimiri boliviensis</t>
+  </si>
+  <si>
+    <t>Piliocolobus tephrosceles</t>
+  </si>
+  <si>
+    <t>Rhinopithecus roxellana</t>
+  </si>
+  <si>
+    <t>Theropithecus gelada</t>
+  </si>
+  <si>
+    <t>Macaca nemestrina</t>
+  </si>
+  <si>
+    <t>NK</t>
   </si>
 </sst>
 </file>
@@ -3324,10 +3453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R190"/>
+  <dimension ref="A1:R225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G144" workbookViewId="0">
+      <selection activeCell="M213" sqref="M213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12143,6 +12272,1091 @@
         <v>48</v>
       </c>
       <c r="R190" s="8"/>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A191" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H191" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I191" s="13">
+        <v>3</v>
+      </c>
+      <c r="J191" s="13"/>
+      <c r="K191" s="20"/>
+      <c r="L191" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A192" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G192" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H192" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I192" s="13">
+        <v>4</v>
+      </c>
+      <c r="J192" s="13"/>
+      <c r="K192" s="8"/>
+      <c r="L192" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A193" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G193" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H193" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I193" s="13">
+        <v>5</v>
+      </c>
+      <c r="J193" s="13"/>
+      <c r="K193" s="8"/>
+      <c r="L193" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A194" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F194" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G194" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H194" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I194" s="13">
+        <v>6</v>
+      </c>
+      <c r="J194" s="13"/>
+      <c r="K194" s="20"/>
+      <c r="L194" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A195" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H195" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I195" s="13">
+        <v>7</v>
+      </c>
+      <c r="J195" s="13"/>
+      <c r="K195" s="8"/>
+      <c r="L195" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A196" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G196" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H196" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I196" s="13">
+        <v>8</v>
+      </c>
+      <c r="J196" s="13"/>
+      <c r="K196" s="8"/>
+      <c r="L196" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A197" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H197" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I197" s="13">
+        <v>9</v>
+      </c>
+      <c r="J197" s="13"/>
+      <c r="K197" s="20"/>
+      <c r="L197" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A198" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G198" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H198" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I198" s="13">
+        <v>10</v>
+      </c>
+      <c r="J198" s="13"/>
+      <c r="K198" s="8"/>
+      <c r="L198" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A199" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G199" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H199" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I199" s="13">
+        <v>11</v>
+      </c>
+      <c r="J199" s="13"/>
+      <c r="K199" s="8"/>
+      <c r="L199" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A200" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G200" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H200" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I200" s="13">
+        <v>12</v>
+      </c>
+      <c r="J200" s="13"/>
+      <c r="K200" s="20"/>
+      <c r="L200" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A201" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H201" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I201" s="13">
+        <v>13</v>
+      </c>
+      <c r="J201" s="13"/>
+      <c r="K201" s="8"/>
+      <c r="L201" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A202" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F202" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G202" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H202" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I202" s="13">
+        <v>14</v>
+      </c>
+      <c r="J202" s="13"/>
+      <c r="K202" s="8"/>
+      <c r="L202" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A203" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G203" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H203" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I203" s="13">
+        <v>15</v>
+      </c>
+      <c r="J203" s="13"/>
+      <c r="K203" s="20"/>
+      <c r="L203" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A204" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G204" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H204" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I204" s="13">
+        <v>16</v>
+      </c>
+      <c r="J204" s="13"/>
+      <c r="K204" s="8"/>
+      <c r="L204" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A205" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G205" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H205" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I205" s="13">
+        <v>17</v>
+      </c>
+      <c r="J205" s="13"/>
+      <c r="K205" s="8"/>
+      <c r="L205" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A206" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F206" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G206" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H206" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I206" s="13">
+        <v>18</v>
+      </c>
+      <c r="J206" s="13"/>
+      <c r="K206" s="20"/>
+      <c r="L206" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A207" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F207" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G207" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H207" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I207" s="13">
+        <v>19</v>
+      </c>
+      <c r="J207" s="13"/>
+      <c r="K207" s="8"/>
+      <c r="L207" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A208" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F208" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G208" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H208" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I208" s="13">
+        <v>20</v>
+      </c>
+      <c r="J208" s="13"/>
+      <c r="K208" s="8"/>
+      <c r="L208" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A209" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F209" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G209" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H209" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I209" s="13">
+        <v>21</v>
+      </c>
+      <c r="J209" s="13"/>
+      <c r="K209" s="20"/>
+      <c r="L209" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A210" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F210" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G210" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H210" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I210" s="13">
+        <v>22</v>
+      </c>
+      <c r="J210" s="13"/>
+      <c r="K210" s="8"/>
+      <c r="L210" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A211" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F211" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G211" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H211" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I211" s="13">
+        <v>23</v>
+      </c>
+      <c r="J211" s="13"/>
+      <c r="K211" s="8"/>
+      <c r="L211" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A212" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F212" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G212" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H212" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I212" s="13">
+        <v>24</v>
+      </c>
+      <c r="J212" s="13"/>
+      <c r="K212" s="20"/>
+      <c r="L212" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A213" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F213" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G213" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H213" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I213" s="13">
+        <v>25</v>
+      </c>
+      <c r="J213" s="13"/>
+      <c r="K213" s="8"/>
+      <c r="L213" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A214" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F214" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G214" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H214" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I214" s="13">
+        <v>26</v>
+      </c>
+      <c r="J214" s="13"/>
+      <c r="K214" s="8"/>
+      <c r="L214" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A215" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F215" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G215" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H215" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I215" s="13">
+        <v>27</v>
+      </c>
+      <c r="J215" s="13"/>
+      <c r="K215" s="20"/>
+      <c r="L215" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A216" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F216" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G216" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H216" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I216" s="13">
+        <v>28</v>
+      </c>
+      <c r="J216" s="13"/>
+      <c r="K216" s="8"/>
+      <c r="L216" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A217" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F217" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G217" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H217" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I217" s="13">
+        <v>29</v>
+      </c>
+      <c r="J217" s="13"/>
+      <c r="K217" s="8"/>
+      <c r="L217" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A218" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F218" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G218" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H218" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I218" s="13">
+        <v>30</v>
+      </c>
+      <c r="J218" s="13"/>
+      <c r="K218" s="20"/>
+      <c r="L218" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A219" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F219" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G219" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H219" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I219" s="13">
+        <v>31</v>
+      </c>
+      <c r="J219" s="13"/>
+      <c r="K219" s="8"/>
+      <c r="L219" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A220" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="F220" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G220" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H220" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I220" s="13">
+        <v>32</v>
+      </c>
+      <c r="J220" s="13"/>
+      <c r="K220" s="8"/>
+      <c r="L220" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A221" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="F221" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G221" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H221" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I221" s="13">
+        <v>33</v>
+      </c>
+      <c r="J221" s="13"/>
+      <c r="K221" s="20"/>
+      <c r="L221" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A222" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="D222" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="F222" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G222" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H222" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I222" s="13">
+        <v>34</v>
+      </c>
+      <c r="J222" s="13"/>
+      <c r="K222" s="8"/>
+      <c r="L222" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A223" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="F223" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G223" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H223" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I223" s="13">
+        <v>35</v>
+      </c>
+      <c r="J223" s="13"/>
+      <c r="K223" s="8"/>
+      <c r="L223" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A224" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="F224" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G224" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H224" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I224" s="13">
+        <v>36</v>
+      </c>
+      <c r="J224" s="13"/>
+      <c r="K224" s="20"/>
+      <c r="L224" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A225" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="F225" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G225" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H225" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I225" s="13">
+        <v>37</v>
+      </c>
+      <c r="J225" s="13"/>
+      <c r="K225" s="8"/>
+      <c r="L225" s="13">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R190">
